--- a/27th May Batch - Current/New Microsoft Excel Worksheet (2).xlsx
+++ b/27th May Batch - Current/New Microsoft Excel Worksheet (2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\27th May Batch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\27th May Batch - Current\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE66F2E-F67F-4935-8393-9A1F05506401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C26189-D0B0-4DA4-B5AA-2FFAFCEDBF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,27 +25,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
-  <si>
-    <t>Footballers - Class - template to define different functionalities of the footballers</t>
-  </si>
-  <si>
-    <t>Leo - Class Objects</t>
-  </si>
-  <si>
-    <t>CR7 - Class Objects</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>Christiano</t>
-  </si>
-  <si>
-    <t>SS</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+  <si>
+    <t>footballs</t>
+  </si>
+  <si>
+    <t>customer details</t>
+  </si>
+  <si>
+    <t>manufacturing details</t>
+  </si>
+  <si>
+    <t>finanice details</t>
+  </si>
+  <si>
+    <t>dev server</t>
+  </si>
+  <si>
+    <t>qa server</t>
+  </si>
+  <si>
+    <t>live server</t>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+  </si>
+  <si>
+    <t>CHAR(10)</t>
+  </si>
+  <si>
+    <t>MEMORY USAGE</t>
+  </si>
+  <si>
+    <t>PETER</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>NED</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>VARCHAR(3)</t>
+  </si>
+  <si>
+    <t>CHAR(3)</t>
+  </si>
+  <si>
+    <t>DATABASE CONSTRAINT</t>
+  </si>
+  <si>
+    <t>SCHOOL DATABASE</t>
+  </si>
+  <si>
+    <t>student _name</t>
+  </si>
+  <si>
+    <t>student_roll</t>
+  </si>
+  <si>
+    <t>student_fees</t>
+  </si>
+  <si>
+    <t>school borad finance</t>
+  </si>
+  <si>
+    <t>Trustee donations</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>principle</t>
+  </si>
+  <si>
+    <t>directors</t>
   </si>
 </sst>
 </file>
@@ -81,11 +141,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,18 +427,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D1:L4"/>
+  <dimension ref="C1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="25.1796875" customWidth="1"/>
+    <col min="9" max="9" width="21.1796875" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" customWidth="1"/>
+    <col min="11" max="11" width="21.6328125" customWidth="1"/>
+    <col min="12" max="12" width="18.26953125" customWidth="1"/>
+    <col min="13" max="13" width="14.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -387,45 +454,134 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="2" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="E3" t="s">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
         <v>6</v>
       </c>
-      <c r="H4" t="s">
-        <v>4</v>
+      <c r="J12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="J15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="D1:L1"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
+    <mergeCell ref="J16:K16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
